--- a/Error Calculation.xlsx
+++ b/Error Calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\Computational-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA4A6C1-E851-4D1F-AB52-882BC5894F57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E669A4F6-0ACC-46B8-B171-7170C631E8F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{10F0D40F-CA6C-4329-AB9C-844D151696DD}"/>
   </bookViews>
@@ -261,7 +261,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -278,10 +278,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -601,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9922B98D-F5C6-4F7F-BCE5-3422888501AF}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,56 +689,56 @@
         <v>4</v>
       </c>
       <c r="D2" s="9">
-        <f>ABS(B2-C2/B2)</f>
-        <v>0.28049304971930256</v>
+        <f>ABS(B2-POWER(C2*10,5)/B2*10)</f>
+        <v>549160386.4154768</v>
       </c>
       <c r="E2" s="2">
-        <f>ABS(B2-C2)</f>
-        <v>2.1353352829999999</v>
+        <f>ABS(POWER(B2*10,5)-POWER(C2*10,5))</f>
+        <v>100145741.23942453</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" s="10">
-        <f>ABS(B2-F2/B2)</f>
-        <v>0.79208583364034868</v>
+        <f>ABS(POWER(B2*10,5)-F2/POWER(B2*10,5))</f>
+        <v>2254258.7605745913</v>
       </c>
       <c r="H2" s="2">
-        <f>ABS(B2-F2)</f>
-        <v>0.13533528300000008</v>
+        <f>ABS(POWER(B2*10, 5)-POWER(F2*10,5))</f>
+        <v>945741.23942452157</v>
       </c>
       <c r="I2">
         <v>1.8646647169999999</v>
       </c>
       <c r="J2">
-        <f>ABS(B2-I2/B2)</f>
-        <v>0.86466471699999992</v>
+        <f>ABS(POWER(B2*10,5)-I2/POWER(B2*10,5))</f>
+        <v>2254258.7605746514</v>
       </c>
       <c r="K2" s="2">
-        <f>ABS(B2-I2)</f>
+        <f>ABS(POWER(B2*10,5)-POWER(I2*10,5))</f>
         <v>0</v>
       </c>
       <c r="L2">
         <v>1.7347608880000001</v>
       </c>
       <c r="M2">
-        <f>ABS(B2 -L2/B2)</f>
-        <v>0.93433076892648137</v>
+        <f>ABS(POWER(B2*10,5) -L2/POWER(B2*10,5))</f>
+        <v>2254258.7605747087</v>
       </c>
       <c r="N2" s="2">
-        <f>ABS(B2 - L2)</f>
-        <v>0.12990382899999986</v>
+        <f>ABS(POWER(B2*10,5) - POWER(L2*10,5))</f>
+        <v>683179.44873562315</v>
       </c>
       <c r="O2">
         <v>1.729870955</v>
       </c>
       <c r="P2">
-        <f>ABS(B2 - O2/B2)</f>
-        <v>0.93695318836490316</v>
+        <f>ABS(POWER(B2*10,5)-O2/POWER(B2*10,5))</f>
+        <v>2254258.760574711</v>
       </c>
       <c r="Q2" s="2">
-        <f>ABS(B2-O2)</f>
-        <v>0.13479376199999993</v>
+        <f>ABS(POWER(B2*10,5)-POWER(O2*10,5))</f>
+        <v>705197.71052347752</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -756,56 +752,56 @@
         <v>4</v>
       </c>
       <c r="D3" s="9">
-        <f>ABS(B3-C3/B3)</f>
-        <v>9.0801030603548938E-5</v>
+        <f t="shared" ref="D3:D6" si="0">ABS(B3-POWER(C3*10,5)/B3*10)</f>
+        <v>512011620.66387987</v>
       </c>
       <c r="E3" s="2">
-        <f>ABS(B3-C3)</f>
-        <v>2.0000454000000003</v>
+        <f t="shared" ref="E3:E6" si="1">ABS(POWER(B3*10,5)-POWER(C3*10,5))</f>
+        <v>99200363.183511093</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="10">
-        <f>ABS(B3-F3/B3)</f>
-        <v>0.99993189948469818</v>
+        <f t="shared" ref="G3:G6" si="2">ABS(POWER(B3*10,5)-F3/POWER(B3*10,5))</f>
+        <v>3199636.81648828</v>
       </c>
       <c r="H3" s="2">
-        <f>ABS(B3-F3)</f>
-        <v>4.5400000000084262E-5</v>
+        <f t="shared" ref="H3:H6" si="3">ABS(POWER(B3*10, 5)-POWER(F3*10,5))</f>
+        <v>363.1835110951215</v>
       </c>
       <c r="I3">
         <v>1.9999980900000001</v>
       </c>
       <c r="J3">
-        <f>ABS(B3-I3/B3)</f>
-        <v>0.99993285450637703</v>
+        <f t="shared" ref="J3:J6" si="4">ABS(POWER(B3*10,5)-I3/POWER(B3*10,5))</f>
+        <v>3199636.81648828</v>
       </c>
       <c r="K3" s="2">
-        <f>ABS(B3-I3)</f>
-        <v>4.3490000000145912E-5</v>
+        <f t="shared" ref="K3:K6" si="5">ABS(POWER(B3*10,5)-POWER(I3*10,5))</f>
+        <v>347.90354028018191</v>
       </c>
       <c r="L3">
         <v>1.9999179520000001</v>
       </c>
       <c r="M3">
-        <f>ABS(B3 -L3/B3)</f>
-        <v>0.99997292441596408</v>
+        <f t="shared" ref="M3:M6" si="6">ABS(POWER(B3*10,5) -L3/POWER(B3*10,5))</f>
+        <v>3199636.81648828</v>
       </c>
       <c r="N3" s="2">
-        <f>ABS(B3 - L3)</f>
-        <v>3.6647999999805947E-5</v>
+        <f t="shared" ref="N3:N6" si="7">ABS(POWER(B3*10,5) - POWER(L3*10,5))</f>
+        <v>293.14663611818105</v>
       </c>
       <c r="O3">
         <v>1.9999910105000001</v>
       </c>
       <c r="P3">
-        <f>ABS(B3 - O3/B3)</f>
-        <v>0.9999363943367312</v>
+        <f t="shared" ref="P3:P6" si="8">ABS(POWER(B3*10,5)-O3/POWER(B3*10,5))</f>
+        <v>3199636.81648828</v>
       </c>
       <c r="Q3" s="2">
-        <f>ABS(B3-O3)</f>
-        <v>3.6410500000139123E-5</v>
+        <f t="shared" ref="Q3:Q6" si="9">ABS(POWER(B3*10,5)-POWER(O3*10,5))</f>
+        <v>291.26815758226439</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -819,55 +815,55 @@
         <v>2</v>
       </c>
       <c r="D4" s="9">
-        <f>ABS(B4-C4/B4)</f>
-        <v>0.99999875199982702</v>
+        <f t="shared" si="0"/>
+        <v>16000004.6560036</v>
       </c>
       <c r="E4" s="2">
-        <f>ABS(B4-C4)</f>
-        <v>8.3200000000616114E-7</v>
+        <f t="shared" si="1"/>
+        <v>6.6559944618493319</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="10">
-        <f>ABS(B4-F4/B4)</f>
-        <v>1.4999989599999135</v>
+        <f t="shared" si="2"/>
+        <v>3199993.3440052257</v>
       </c>
       <c r="H4" s="2">
-        <f>ABS(B4-F4)</f>
-        <v>0.99999916799999999</v>
+        <f t="shared" si="3"/>
+        <v>3099993.3440055382</v>
       </c>
       <c r="I4">
         <v>1.0078124900000001</v>
       </c>
       <c r="J4">
-        <f>ABS(B4-I4/B4)</f>
-        <v>1.4960927133749147</v>
+        <f t="shared" si="4"/>
+        <v>3199993.3440052234</v>
       </c>
       <c r="K4" s="2">
-        <f>ABS(B4-I4)</f>
-        <v>0.99218667799999993</v>
+        <f t="shared" si="5"/>
+        <v>3096025.5853046649</v>
       </c>
       <c r="L4">
         <v>1.017945441</v>
       </c>
       <c r="M4">
-        <f>ABS(B4 -L4/B4)</f>
-        <v>1.4910262357672601</v>
+        <f t="shared" si="6"/>
+        <v>3199993.3440052201</v>
       </c>
       <c r="N4" s="2">
-        <f>ABS(B4 - L4)</f>
-        <v>0.98205372700000004</v>
+        <f t="shared" si="7"/>
+        <v>3090692.7534830011</v>
       </c>
       <c r="O4">
         <v>1.999999168</v>
       </c>
       <c r="P4">
-        <f>ABS(B4 - O4/B4)</f>
-        <v>0.99999916799999999</v>
+        <f t="shared" si="8"/>
+        <v>3199993.3440049132</v>
       </c>
       <c r="Q4" s="2">
-        <f>ABS(B4-O4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -882,56 +878,56 @@
         <v>0</v>
       </c>
       <c r="D5" s="9">
-        <f>ABS(B5-C5/B5)</f>
+        <f t="shared" si="0"/>
         <v>1.9999999980000001</v>
       </c>
       <c r="E5" s="2">
-        <f>ABS(B5-C5)</f>
-        <v>1.9999999980000001</v>
+        <f t="shared" si="1"/>
+        <v>3199999.984000002</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" s="10">
-        <f>ABS(B5-F5/B5)</f>
-        <v>1.4999999975</v>
+        <f t="shared" si="2"/>
+        <v>3199999.9839996896</v>
       </c>
       <c r="H5" s="2">
-        <f>ABS(B5-F5)</f>
-        <v>0.99999999800000006</v>
+        <f t="shared" si="3"/>
+        <v>3099999.984000002</v>
       </c>
       <c r="I5">
         <v>1.0000019099999999</v>
       </c>
       <c r="J5">
-        <f>ABS(B5-I5/B5)</f>
-        <v>1.4999990424999992</v>
+        <f t="shared" si="4"/>
+        <v>3199999.9839996896</v>
       </c>
       <c r="K5" s="2">
-        <f>ABS(B5-I5)</f>
-        <v>0.99999808800000012</v>
+        <f t="shared" si="5"/>
+        <v>3099999.028996354</v>
       </c>
       <c r="L5">
         <v>1.0000418579999999</v>
       </c>
       <c r="M5">
-        <f>ABS(B5 -L5/B5)</f>
-        <v>1.4999790684999792</v>
+        <f t="shared" si="6"/>
+        <v>3199999.9839996896</v>
       </c>
       <c r="N5" s="2">
-        <f>ABS(B5 - L5)</f>
-        <v>0.99995814000000016</v>
+        <f t="shared" si="7"/>
+        <v>3099979.0532478364</v>
       </c>
       <c r="O5">
         <v>1.0000449440000001</v>
       </c>
       <c r="P5">
-        <f>ABS(B5 - O5/B5)</f>
-        <v>1.4999775254999776</v>
+        <f t="shared" si="8"/>
+        <v>3199999.9839996896</v>
       </c>
       <c r="Q5" s="2">
-        <f>ABS(B5-O5)</f>
-        <v>0.99995505399999995</v>
+        <f t="shared" si="9"/>
+        <v>3099977.5099799479</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -945,56 +941,56 @@
         <v>2</v>
       </c>
       <c r="D6" s="11">
-        <f>ABS(B6-C6/B6)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>15999998</v>
       </c>
       <c r="E6" s="3">
-        <f>ABS(B6-C6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="12">
-        <f>ABS(B6-F6/B6)</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>3199999.9999990626</v>
       </c>
       <c r="H6" s="3">
-        <f>ABS(B6-F6)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>21100000</v>
       </c>
       <c r="I6" s="1">
         <v>2.9999961900000001</v>
       </c>
       <c r="J6" s="1">
-        <f>ABS(B6-I6/B6)</f>
-        <v>0.50000190499999997</v>
+        <f t="shared" si="4"/>
+        <v>3199999.9999990626</v>
       </c>
       <c r="K6" s="3">
-        <f>ABS(B6-I6)</f>
-        <v>0.99999619000000006</v>
+        <f t="shared" si="5"/>
+        <v>21099845.695391946</v>
       </c>
       <c r="L6" s="1">
         <v>2.9999162789999998</v>
       </c>
       <c r="M6" s="1">
-        <f>ABS(B6 -L6/B6)</f>
-        <v>0.5000418605000001</v>
+        <f t="shared" si="6"/>
+        <v>3199999.9999990626</v>
       </c>
       <c r="N6" s="3">
-        <f>ABS(B6 - L6)</f>
-        <v>0.9999162789999998</v>
+        <f t="shared" si="7"/>
+        <v>21096609.488743272</v>
       </c>
       <c r="O6" s="1">
         <v>2.999909927</v>
       </c>
       <c r="P6" s="1">
-        <f>ABS(B6 - O6/B6)</f>
-        <v>0.50004503649999998</v>
+        <f t="shared" si="8"/>
+        <v>3199999.9999990626</v>
       </c>
       <c r="Q6" s="3">
-        <f>ABS(B6-O6)</f>
-        <v>0.99990992700000003</v>
+        <f t="shared" si="9"/>
+        <v>21096352.262548357</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1003,43 +999,43 @@
       </c>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>4.2805826007497334</v>
-      </c>
-      <c r="E7" s="16">
+        <v>1093172011.7353604</v>
+      </c>
+      <c r="E7" s="14">
         <f>SUM(E2:E6)</f>
-        <v>6.1353815130000005</v>
-      </c>
-      <c r="G7" s="13">
+        <v>202546111.06293008</v>
+      </c>
+      <c r="G7" s="15">
         <f>SUM(G2:G6)</f>
-        <v>5.2920166906249602</v>
-      </c>
-      <c r="H7" s="17">
+        <v>15053888.90506685</v>
+      </c>
+      <c r="H7" s="15">
         <f>SUM(H2:H6)</f>
-        <v>3.1353798490000004</v>
-      </c>
-      <c r="J7" s="13">
+        <v>28246097.750941157</v>
+      </c>
+      <c r="J7" s="14">
         <f>SUM(J2:J6)</f>
-        <v>5.3606912323812903</v>
-      </c>
-      <c r="K7" s="18">
+        <v>15053888.905066907</v>
+      </c>
+      <c r="K7" s="15">
         <f>SUM(K2:K6)</f>
-        <v>2.9922244460000003</v>
-      </c>
-      <c r="M7" s="13">
+        <v>27296218.213233244</v>
+      </c>
+      <c r="M7" s="14">
         <f>SUM(M2:M6)</f>
-        <v>5.4253508581096845</v>
-      </c>
-      <c r="N7" s="19">
+        <v>15053888.905066961</v>
+      </c>
+      <c r="N7" s="13">
         <f>SUM(N2:N6)</f>
-        <v>3.1118686229999994</v>
-      </c>
-      <c r="P7" s="15">
+        <v>27970753.89084585</v>
+      </c>
+      <c r="P7" s="14">
         <f>SUM(P2:P6)</f>
-        <v>4.9369113127016124</v>
-      </c>
-      <c r="Q7" s="18">
+        <v>15053888.905066658</v>
+      </c>
+      <c r="Q7" s="15">
         <f>SUM(Q2:Q6)</f>
-        <v>2.1346951535000001</v>
+        <v>24901818.751209363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1048,43 +1044,43 @@
       </c>
       <c r="D8" s="14">
         <f>D7/5</f>
-        <v>0.85611652014994666</v>
-      </c>
-      <c r="E8" s="16">
+        <v>218634402.34707206</v>
+      </c>
+      <c r="E8" s="14">
         <f>E7/5</f>
-        <v>1.2270763026</v>
-      </c>
-      <c r="G8" s="13">
+        <v>40509222.212586015</v>
+      </c>
+      <c r="G8" s="15">
         <f>G7/5</f>
-        <v>1.058403338124992</v>
-      </c>
-      <c r="H8" s="17">
+        <v>3010777.78101337</v>
+      </c>
+      <c r="H8" s="15">
         <f>H7/5</f>
-        <v>0.62707596980000013</v>
-      </c>
-      <c r="J8" s="13">
+        <v>5649219.5501882313</v>
+      </c>
+      <c r="J8" s="14">
         <f>J7/5</f>
-        <v>1.0721382464762581</v>
-      </c>
-      <c r="K8" s="18">
+        <v>3010777.7810133817</v>
+      </c>
+      <c r="K8" s="15">
         <f>K7/5</f>
-        <v>0.59844488920000005</v>
-      </c>
-      <c r="M8" s="13">
+        <v>5459243.6426466489</v>
+      </c>
+      <c r="M8" s="14">
         <f>M7/5</f>
-        <v>1.0850701716219369</v>
-      </c>
-      <c r="N8" s="19">
+        <v>3010777.7810133924</v>
+      </c>
+      <c r="N8" s="13">
         <f>N7/5</f>
-        <v>0.62237372459999984</v>
-      </c>
-      <c r="P8" s="15">
+        <v>5594150.77816917</v>
+      </c>
+      <c r="P8" s="14">
         <f>P7/5</f>
-        <v>0.98738226254032246</v>
-      </c>
-      <c r="Q8" s="18">
+        <v>3010777.7810133314</v>
+      </c>
+      <c r="Q8" s="15">
         <f>Q7/5</f>
-        <v>0.4269390307</v>
+        <v>4980363.7502418729</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
